--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3722609.459904023</v>
+        <v>3718472.302653871</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7586268.040551851</v>
+        <v>7586268.04055185</v>
       </c>
     </row>
     <row r="11">
@@ -664,13 +664,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>375.2022121361128</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>213.2066220932631</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1.704810232291929</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -828,7 +828,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.3066000448042</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>66.40055121331467</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>126.4244368337216</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -961,7 +961,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>60.65887931004438</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>171.1971464172153</v>
       </c>
       <c r="X7" t="n">
-        <v>43.90275852992292</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,25 +1135,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>288.0417862838281</v>
+        <v>286.5888679426061</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1290,10 +1290,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,13 +1305,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>130.4201680604713</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,13 +1344,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>90.69811547110022</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1359,7 +1359,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444129</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457617</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.3752467101217</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>91.89996056624796</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1590,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>177.4940462744517</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695531</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1767,25 +1767,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>67.10592483573218</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1852,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.3752467101217</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>54.27601060788879</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,25 +2241,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>28.75188085812005</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>104.8913819999787</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,16 +2478,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>63.34420421319661</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>113.6427030833203</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2715,16 +2715,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>59.00369384633101</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2733,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,10 +2760,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3012,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>105.9742079424038</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176115</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>91.40260836685113</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695527</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>66.85274231757958</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>39.19314274110882</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3903,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>64.91921363453658</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4149,13 +4149,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>40.62253010341743</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,10 +4191,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>160.6789846282037</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>884.1849331278579</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>515.2224161874462</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>515.2224161874462</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>136.2302827166252</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
         <v>51.24678656800311</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.31341879663</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V2" t="n">
-        <v>1644.250531453059</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>1644.250531453059</v>
+        <v>2346.979104063526</v>
       </c>
       <c r="X2" t="n">
-        <v>1270.78477319198</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1270.78477319198</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4385,25 +4385,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488047</v>
       </c>
       <c r="F3" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057915</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
@@ -4412,22 +4412,22 @@
         <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429759</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744476</v>
+        <v>607.1380332666182</v>
       </c>
       <c r="M3" t="n">
-        <v>1165.206974733668</v>
+        <v>970.4000522258383</v>
       </c>
       <c r="N3" t="n">
-        <v>1552.492103330613</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1991.864164601822</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434119</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.054313852967</v>
+        <v>938.9442613508774</v>
       </c>
       <c r="C4" t="n">
-        <v>623.1181309250601</v>
+        <v>770.0080784229705</v>
       </c>
       <c r="D4" t="n">
-        <v>473.0014915127243</v>
+        <v>619.8914390106347</v>
       </c>
       <c r="E4" t="n">
-        <v>325.0883979303312</v>
+        <v>471.9783454282416</v>
       </c>
       <c r="F4" t="n">
         <v>325.0883979303312</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1310.884232784815</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1021.765895288653</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W4" t="n">
-        <v>1021.765895288653</v>
+        <v>1569.374856222664</v>
       </c>
       <c r="X4" t="n">
-        <v>793.7763443906356</v>
+        <v>1341.385305324647</v>
       </c>
       <c r="Y4" t="n">
-        <v>793.7763443906356</v>
+        <v>1120.592726181117</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>909.233203697441</v>
+        <v>934.6665353554984</v>
       </c>
       <c r="C5" t="n">
-        <v>540.2706867570294</v>
+        <v>934.6665353554984</v>
       </c>
       <c r="D5" t="n">
-        <v>540.2706867570294</v>
+        <v>576.4008367487479</v>
       </c>
       <c r="E5" t="n">
-        <v>540.2706867570294</v>
+        <v>190.6125841505037</v>
       </c>
       <c r="F5" t="n">
-        <v>129.2847819674218</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
         <v>51.24678656800311</v>
@@ -4570,7 +4570,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2100.01262627016</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W5" t="n">
-        <v>1747.243971000046</v>
+        <v>2084.871465656512</v>
       </c>
       <c r="X5" t="n">
-        <v>1685.972375737374</v>
+        <v>1711.405707395432</v>
       </c>
       <c r="Y5" t="n">
-        <v>1295.833043761563</v>
+        <v>1321.26637541962</v>
       </c>
     </row>
     <row r="6">
@@ -4622,10 +4622,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
         <v>607.9167021542605</v>
@@ -4634,10 +4634,10 @@
         <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
         <v>71.67401812057901</v>
@@ -4646,25 +4646,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>168.0008189145198</v>
       </c>
       <c r="K6" t="n">
-        <v>560.1394111735141</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L6" t="n">
-        <v>854.8429682049857</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M6" t="n">
-        <v>1218.104987164206</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1605.390115761151</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O6" t="n">
-        <v>1937.460550937313</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2447.023413292609</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
         <v>2562.339328400155</v>
@@ -4685,7 +4685,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
         <v>1307.279776881661</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>305.0150268210029</v>
+        <v>833.0891146802707</v>
       </c>
       <c r="C7" t="n">
-        <v>305.0150268210029</v>
+        <v>664.1529317523638</v>
       </c>
       <c r="D7" t="n">
-        <v>305.0150268210029</v>
+        <v>514.036292340028</v>
       </c>
       <c r="E7" t="n">
-        <v>157.1019332386098</v>
+        <v>366.1231987576349</v>
       </c>
       <c r="F7" t="n">
-        <v>157.1019332386098</v>
+        <v>219.2332512597245</v>
       </c>
       <c r="G7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
         <v>51.24678656800311</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1114.255484944676</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>859.5709967387894</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>570.1538267018288</v>
+        <v>1463.519709552058</v>
       </c>
       <c r="X7" t="n">
-        <v>525.807605964533</v>
+        <v>1235.53015865404</v>
       </c>
       <c r="Y7" t="n">
-        <v>305.0150268210029</v>
+        <v>1014.73757951051</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1593.528088680778</v>
+        <v>728.3028554854568</v>
       </c>
       <c r="C8" t="n">
-        <v>1593.528088680778</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="D8" t="n">
-        <v>1235.262390074028</v>
+        <v>359.3403385450451</v>
       </c>
       <c r="E8" t="n">
-        <v>944.3110907974335</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F8" t="n">
-        <v>533.3251860078259</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6204357321147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.7553530872913</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4834,22 +4834,22 @@
         <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2353.59368700598</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2353.59368700598</v>
+        <v>2231.276441056584</v>
       </c>
       <c r="W8" t="n">
-        <v>2353.59368700598</v>
+        <v>1878.50778578647</v>
       </c>
       <c r="X8" t="n">
-        <v>1980.1279287449</v>
+        <v>1505.04202752539</v>
       </c>
       <c r="Y8" t="n">
-        <v>1980.1279287449</v>
+        <v>1114.902695549579</v>
       </c>
     </row>
     <row r="9">
@@ -4859,25 +4859,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D9" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E9" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182524</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,25 +4886,25 @@
         <v>113.5972052500113</v>
       </c>
       <c r="K9" t="n">
-        <v>560.1394111735141</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694943</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1209.253210781439</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1843.432194560477</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2175.502629736639</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2422.685363568936</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4916,16 +4916,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V9" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X9" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y9" t="n">
         <v>1099.519478116707</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>606.9425808380925</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C10" t="n">
-        <v>606.9425808380925</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D10" t="n">
-        <v>456.8259414257567</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E10" t="n">
-        <v>456.8259414257567</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
-        <v>456.8259414257567</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>288.8394767340353</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
@@ -4977,10 +4977,10 @@
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>1544.831862022881</v>
       </c>
       <c r="V10" t="n">
-        <v>1124.34930177307</v>
+        <v>1290.147373816994</v>
       </c>
       <c r="W10" t="n">
-        <v>834.9321317361098</v>
+        <v>1000.730203780033</v>
       </c>
       <c r="X10" t="n">
-        <v>606.9425808380925</v>
+        <v>772.7406528820156</v>
       </c>
       <c r="Y10" t="n">
-        <v>606.9425808380925</v>
+        <v>551.9480737384855</v>
       </c>
     </row>
     <row r="11">
@@ -5023,55 +5023,55 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168603</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362677</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,31 +5114,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.584050252739</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J12" t="n">
-        <v>95.584050252739</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>429.5088224239595</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
-        <v>924.8344286397181</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2149.810879820876</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2149.810879820876</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>806.8386896933887</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>637.9025067654818</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>637.9025067654818</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E13" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F13" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2160.315914855604</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U13" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V13" t="n">
-        <v>1616.556199993915</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W13" t="n">
-        <v>1437.269284565176</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.279733667159</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y13" t="n">
-        <v>988.4871545236284</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="14">
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,10 +5305,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756265</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438179</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C16" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D16" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5472,16 +5472,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1620.602091394371</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1331.18492135741</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>1103.195370459393</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y16" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="17">
@@ -5491,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5509,31 +5509,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5542,25 +5542,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756265</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>738.7889117913851</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>1336.167399417937</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1963.765362972543</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1963.765362972543</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2387.388512467611</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>868.6673633290468</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>699.7311804011399</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1089.459942472577</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>868.6673633290468</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5728,40 +5728,40 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362674</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>315.9123021921476</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>913.2907898186995</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1540.888753373306</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D22" t="n">
-        <v>513.8536007400717</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797186</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038344</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6065,31 +6065,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2940.5785039035</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>2940.5785039035</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D25" t="n">
-        <v>2940.5785039035</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E25" t="n">
-        <v>2792.665410321107</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F25" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3860.426268812248</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W25" t="n">
-        <v>3571.009098775287</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X25" t="n">
-        <v>3343.01954787727</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y25" t="n">
-        <v>3122.22696873374</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6214,22 +6214,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6244,13 +6244,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
         <v>4606.285157492578</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>175.8744207939068</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>671.2000270096656</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3233.200736907822</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>3173.601046153953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>3932.25592267304</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>3642.838752636079</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>3414.849201738062</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>3414.849201738062</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6481,13 +6481,13 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
         <v>4606.285157492578</v>
@@ -6499,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,10 +6536,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
         <v>243.4633055756266</v>
@@ -6548,13 +6548,13 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3342.53722908186</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>3173.601046153953</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>3023.484406741617</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>2875.571313159224</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>2728.681365661314</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376194</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.932614305901</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328842</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.25592267304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467153</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>3677.571434467153</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>3449.581883569136</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>3342.53722908186</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6694,58 +6694,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273906</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>429.5088224239597</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>924.8344286397185</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>733.4550657171305</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>733.4550657171305</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>583.3384263047948</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="E34" t="n">
-        <v>435.4253327224017</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="F34" t="n">
-        <v>343.0994656851783</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1363.885660588918</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>915.1035305473703</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6964,10 +6964,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
@@ -7010,28 +7010,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4690.833152398593</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4690.833152398593</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4471.231687421535</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>4182.156460765733</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3927.471972559846</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3638.054802522885</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3410.065251624868</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3342.537229081859</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7174,10 +7174,10 @@
         <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111706</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075799</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332386</v>
@@ -7186,7 +7186,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>2231.588527385791</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>2565.513299557012</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>2913.946970978147</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3511.325458604699</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>4138.923422159306</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>988.1395539230176</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>819.2033709951107</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>2197.062545487568</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1618.570148794805</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1390.580597896787</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>1169.788018753257</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,7 +7423,7 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7447,16 +7447,16 @@
         <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2131.487582220359</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>2131.487582220359</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1876.803094014472</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1587.385923977512</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>1359.396373079494</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,34 +7636,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7724,28 +7724,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>923.0670414349511</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1057.613315601761</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>888.6771326738537</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>738.560493261518</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>590.6473996791249</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>443.7574521812145</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>276.5613528960944</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>134.8495217382925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U46" t="n">
-        <v>1977.461080510508</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1977.461080510508</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1688.043910473548</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>1460.05435957553</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>1239.261780432</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -8060,10 +8060,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>211.0329012241562</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>14.25823202432855</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -8294,7 +8294,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>54.95314511566511</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>265.0304328515151</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>20.9377812015499</v>
@@ -8534,16 +8534,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>54.95314511566522</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>255.5240487471575</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>125.5054897610403</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23478,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>109.0289520621393</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23655,25 +23655,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>185.0317184880958</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,28 +23889,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856555</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>171.4336447811484</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>41.54258064659051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24366,16 +24366,16 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>82.07684380973464</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24414,7 +24414,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24603,16 +24603,16 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>108.2431272522968</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24900,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>112.610445409691</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,22 +25077,22 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>121.5862749664512</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>54.01843965608012</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25311,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>151.7319110345152</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>109.4223302771035</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>152.4862366927517</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>40.64330621514811</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26079,10 +26079,10 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>125.5054897610405</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651816.7194021284</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710694</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="C2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="D2" t="n">
-        <v>779989.6813710696</v>
+        <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055056</v>
       </c>
       <c r="F2" t="n">
         <v>766789.2697055059</v>
@@ -26331,22 +26331,22 @@
         <v>766789.269705506</v>
       </c>
       <c r="H2" t="n">
+        <v>766789.2697055058</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055063</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055059</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.2697055062</v>
+        <v>766789.269705506</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
@@ -26355,7 +26355,7 @@
         <v>766789.2697055059</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055058</v>
+        <v>766789.2697055057</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.482032298052218e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289266</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
-        <v>131909.726831625</v>
+        <v>131909.7268316249</v>
       </c>
       <c r="D4" t="n">
         <v>131909.726831625</v>
       </c>
       <c r="E4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707315</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
       </c>
       <c r="G4" t="n">
-        <v>6897.424496707419</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="I4" t="n">
-        <v>6897.424496707361</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.42449670736</v>
       </c>
       <c r="K4" t="n">
-        <v>6897.424496707319</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="L4" t="n">
-        <v>6897.424496707305</v>
+        <v>6897.424496707403</v>
       </c>
       <c r="M4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="N4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="O4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="N4" t="n">
-        <v>6897.424496707361</v>
-      </c>
-      <c r="O4" t="n">
-        <v>6897.424496707361</v>
-      </c>
       <c r="P4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559609.6014763199</v>
+        <v>-559609.6014763198</v>
       </c>
       <c r="C6" t="n">
         <v>555142.1820995999</v>
       </c>
       <c r="D6" t="n">
-        <v>555142.1820996</v>
+        <v>555142.1820995999</v>
       </c>
       <c r="E6" t="n">
-        <v>151283.8737603457</v>
+        <v>150936.4945059882</v>
       </c>
       <c r="F6" t="n">
-        <v>658769.3153848915</v>
+        <v>658421.9361305345</v>
       </c>
       <c r="G6" t="n">
-        <v>658769.3153848916</v>
+        <v>658421.9361305346</v>
       </c>
       <c r="H6" t="n">
-        <v>658769.3153848911</v>
+        <v>658421.9361305344</v>
       </c>
       <c r="I6" t="n">
-        <v>658769.3153848918</v>
+        <v>658421.9361305345</v>
       </c>
       <c r="J6" t="n">
-        <v>491164.1375749091</v>
+        <v>490816.7583205519</v>
       </c>
       <c r="K6" t="n">
-        <v>658769.3153848916</v>
+        <v>658421.9361305345</v>
       </c>
       <c r="L6" t="n">
-        <v>658769.3153848916</v>
+        <v>658421.9361305345</v>
       </c>
       <c r="M6" t="n">
-        <v>526162.0216559651</v>
+        <v>525814.6424016078</v>
       </c>
       <c r="N6" t="n">
-        <v>658769.3153848915</v>
+        <v>658421.9361305345</v>
       </c>
       <c r="O6" t="n">
-        <v>658769.3153848915</v>
+        <v>658421.9361305345</v>
       </c>
       <c r="P6" t="n">
-        <v>658769.3153848915</v>
+        <v>658421.9361305343</v>
       </c>
     </row>
   </sheetData>
@@ -26743,7 +26743,7 @@
         <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26798,7 +26798,7 @@
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26813,13 +26813,13 @@
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241343</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996092</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996094</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27384,13 +27384,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.728157936148989</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27399,7 +27399,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,19 +27429,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>136.0343466241499</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178.1271699496454</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27548,7 +27548,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>220.1224471232763</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>280.4516089079899</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27636,7 +27636,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27681,7 +27681,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>309.0722213684247</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>115.3258519193757</v>
       </c>
       <c r="X7" t="n">
-        <v>181.8068968591142</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,25 +27855,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>93.88858378843372</v>
+        <v>95.34150212965568</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>16.83134109465757</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28064,13 +28064,13 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>195.5290386501004</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28079,7 +28079,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>-9.663381206337363e-13</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>9.496150991986754e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T8" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R9" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,37 +31840,37 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862119</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>305.6802133385891</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,37 +32077,37 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>245.8118639189585</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437242</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>171.7382405950817</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.3207199713534</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817574</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162559</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175673</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159424</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460026</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236506</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669222</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078745</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,40 +32311,40 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473071</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862119</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071783</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>270.3182595810221</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.689256441856</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869274</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417314</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32554,37 +32554,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>362.8934092184356</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>151.9914336104071</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>220.7280629601519</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,19 +33265,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>595.3857163736978</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,34 +33727,34 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>526.2989357561996</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>490.5075832355669</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460016</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>653.3850396373771</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,10 +34444,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34459,16 +34459,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>522.1224556861836</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34780,10 +34780,10 @@
         <v>62.98022089091742</v>
       </c>
       <c r="K3" t="n">
-        <v>397.620397467641</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378502</v>
+        <v>311.9385926621787</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34792,13 +34792,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>117.9333660065825</v>
       </c>
       <c r="K6" t="n">
         <v>451.0527332560634</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>116.4807223308546</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091742</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K9" t="n">
-        <v>451.0527332560634</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>352.6335057535154</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>622.455381029198</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977091</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K10" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774901</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678995</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>171.7058059242588</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678995</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>103.6778299969401</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992797</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>37.7638331807514</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317227</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396419</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367769</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902946</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243158</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924726</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674329</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641936</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>633.937336923845</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.3364854950006</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789208</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295333</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.272427001045</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066249</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,28 +36202,28 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>224.3390294385614</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>20.64972152707382</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>82.88662398579288</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,16 +36916,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>200.7949786802851</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>453.2516824516795</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>394.9572236728663</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>351.9532034556927</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243148</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>510.7887951929326</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38107,16 +38107,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>379.5262112417391</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1750000/Output_10_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3718472.302653871</v>
+        <v>3720232.832956657</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7586268.04055185</v>
+        <v>7586268.040551851</v>
       </c>
     </row>
     <row r="11">
@@ -670,7 +670,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>270.8416991175617</v>
       </c>
       <c r="G2" t="n">
         <v>11.54770277295399</v>
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>213.2066220932631</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -831,13 +831,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>46.24467307253359</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,10 +879,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>66.40055121331467</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,16 +898,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>259.6580847920584</v>
       </c>
       <c r="F5" t="n">
-        <v>126.4244368337216</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>171.1971464172153</v>
+        <v>171.1971464172148</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>286.5888679426061</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,10 +1192,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>103.5164680384155</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1347,10 +1347,10 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>90.69811547110022</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710103</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1423,7 +1423,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.022230457617</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1536,16 +1536,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,16 +1575,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>1.294096136280004</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>91.89996056624796</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1660,10 +1660,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,7 +1821,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>74.20064764874441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1861,7 +1861,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>1.79977260571614</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>113.6427030833203</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2763,10 +2763,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>123.7971820797026</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>115.7063133373732</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634777</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,7 +3040,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417105</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695527</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3125,7 +3125,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H33" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3186,13 +3186,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D34" t="n">
-        <v>27.02919805176115</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428364</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444109</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695527</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881285</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,7 +3362,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H36" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3423,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819372</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.799772605718194</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012159</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238279</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365909</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>218.5846533520947</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3599,7 +3599,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H39" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>9.146142788179482</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3726,7 +3726,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>168.4805514670949</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>133.3722917337063</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>107.4021082756239</v>
       </c>
       <c r="U46" t="n">
-        <v>160.6789846282037</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.913505738324</v>
+        <v>1449.50507480484</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>1080.542557864428</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>722.2768592576774</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>336.4886066594332</v>
       </c>
       <c r="F2" t="n">
         <v>62.91113280331017</v>
@@ -4333,7 +4333,7 @@
         <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
         <v>795.7553530872915</v>
@@ -4369,13 +4369,13 @@
         <v>2562.339328400155</v>
       </c>
       <c r="W2" t="n">
-        <v>2346.979104063526</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X2" t="n">
-        <v>1973.513345802446</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y2" t="n">
-        <v>1973.513345802446</v>
+        <v>1836.104914868961</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488047</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756898</v>
+        <v>302.14468917569</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182522</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057918</v>
       </c>
       <c r="I3" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605188</v>
       </c>
       <c r="L3" t="n">
-        <v>607.1380332666182</v>
+        <v>979.6730931919906</v>
       </c>
       <c r="M3" t="n">
-        <v>970.4000522258383</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N3" t="n">
-        <v>1357.685180822783</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O3" t="n">
-        <v>1991.864164601822</v>
+        <v>2062.290675924318</v>
       </c>
       <c r="P3" t="n">
-        <v>2239.046898434119</v>
+        <v>2309.473409756615</v>
       </c>
       <c r="Q3" t="n">
         <v>2562.339328400155</v>
@@ -4448,10 +4448,10 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>938.9442613508774</v>
+        <v>711.8144409709064</v>
       </c>
       <c r="C4" t="n">
-        <v>770.0080784229705</v>
+        <v>542.8782580429995</v>
       </c>
       <c r="D4" t="n">
-        <v>619.8914390106347</v>
+        <v>392.7616186306637</v>
       </c>
       <c r="E4" t="n">
-        <v>471.9783454282416</v>
+        <v>244.8485250482706</v>
       </c>
       <c r="F4" t="n">
-        <v>325.0883979303312</v>
+        <v>97.95857755036027</v>
       </c>
       <c r="G4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
         <v>51.24678656800311</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074497</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1636.446120074497</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="W4" t="n">
-        <v>1569.374856222664</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="X4" t="n">
-        <v>1341.385305324647</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="Y4" t="n">
-        <v>1120.592726181117</v>
+        <v>893.4629058011461</v>
       </c>
     </row>
     <row r="5">
@@ -4543,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>934.6665353554984</v>
+        <v>1059.365742829028</v>
       </c>
       <c r="C5" t="n">
-        <v>934.6665353554984</v>
+        <v>690.4032258886161</v>
       </c>
       <c r="D5" t="n">
-        <v>576.4008367487479</v>
+        <v>332.1375272818656</v>
       </c>
       <c r="E5" t="n">
-        <v>190.6125841505037</v>
+        <v>69.85663355251364</v>
       </c>
       <c r="F5" t="n">
         <v>62.91113280331017</v>
@@ -4567,13 +4567,13 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362822</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.5171852816088</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872915</v>
+        <v>795.755353087292</v>
       </c>
       <c r="M5" t="n">
         <v>1220.470313923562</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V5" t="n">
-        <v>2437.640120926626</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W5" t="n">
-        <v>2084.871465656512</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X5" t="n">
-        <v>1711.405707395432</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y5" t="n">
-        <v>1321.26637541962</v>
+        <v>1445.96558289315</v>
       </c>
     </row>
     <row r="6">
@@ -4640,16 +4640,16 @@
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057902</v>
       </c>
       <c r="I6" t="n">
         <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>168.0008189145198</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>614.5430248380226</v>
+        <v>614.5430248380227</v>
       </c>
       <c r="L6" t="n">
         <v>909.2465818694943</v>
@@ -4725,25 +4725,25 @@
         <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P7" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q7" t="n">
         <v>1636.446120074497</v>
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>728.3028554854568</v>
+        <v>1182.87310169792</v>
       </c>
       <c r="C8" t="n">
-        <v>359.3403385450451</v>
+        <v>813.9105847575083</v>
       </c>
       <c r="D8" t="n">
-        <v>359.3403385450451</v>
+        <v>455.6448861507579</v>
       </c>
       <c r="E8" t="n">
         <v>69.85663355251364</v>
@@ -4795,22 +4795,22 @@
         <v>62.91113280331017</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J8" t="n">
         <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V8" t="n">
-        <v>2231.276441056584</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="W8" t="n">
-        <v>1878.50778578647</v>
+        <v>2333.078031998934</v>
       </c>
       <c r="X8" t="n">
-        <v>1505.04202752539</v>
+        <v>1959.612273737853</v>
       </c>
       <c r="Y8" t="n">
-        <v>1114.902695549579</v>
+        <v>1569.472941762042</v>
       </c>
     </row>
     <row r="9">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C9" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D9" t="n">
         <v>607.9167021542605</v>
@@ -4871,40 +4871,40 @@
         <v>448.679247148805</v>
       </c>
       <c r="F9" t="n">
-        <v>302.14468917569</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G9" t="n">
-        <v>165.4432786182524</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
         <v>71.67401812057901</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>614.5430248380226</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>909.2465818694943</v>
       </c>
       <c r="M9" t="n">
-        <v>1209.253210781439</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1843.432194560477</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2175.502629736639</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2422.685363568936</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4922,7 +4922,7 @@
         <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
         <v>1307.279776881661</v>
@@ -4938,49 +4938,49 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>370.2996089082458</v>
+        <v>665.1026499885492</v>
       </c>
       <c r="C10" t="n">
-        <v>201.3634259803388</v>
+        <v>496.1664670606423</v>
       </c>
       <c r="D10" t="n">
-        <v>51.2467865680031</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4995,19 +4995,19 @@
         <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1544.831862022881</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1290.147373816994</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.730203780033</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X10" t="n">
-        <v>772.7406528820156</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y10" t="n">
-        <v>551.9480737384855</v>
+        <v>846.7511148187889</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611463</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192601</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5056,37 +5056,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468472</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>707.672526468518</v>
+        <v>868.6673633290469</v>
       </c>
       <c r="C13" t="n">
-        <v>538.7363435406111</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D13" t="n">
-        <v>388.6197041282754</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E13" t="n">
-        <v>240.7066105458823</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>93.81666304797189</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057739</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L13" t="n">
         <v>826.1405381797745</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2446.96308358026</v>
+        <v>2445.655915765836</v>
       </c>
       <c r="S13" t="n">
-        <v>2264.108249235165</v>
+        <v>2262.801081420741</v>
       </c>
       <c r="T13" t="n">
-        <v>2171.280006238955</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="U13" t="n">
-        <v>1882.204779583153</v>
+        <v>2043.199616443682</v>
       </c>
       <c r="V13" t="n">
-        <v>1627.520291377266</v>
+        <v>1788.515128237795</v>
       </c>
       <c r="W13" t="n">
-        <v>1338.103121340305</v>
+        <v>1499.097958200834</v>
       </c>
       <c r="X13" t="n">
-        <v>1110.113570442288</v>
+        <v>1271.108407302817</v>
       </c>
       <c r="Y13" t="n">
-        <v>889.3209912987577</v>
+        <v>1050.315828159287</v>
       </c>
     </row>
     <row r="14">
@@ -5275,22 +5275,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5363,19 +5363,19 @@
         <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913853</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417937</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972544</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211831</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5469,19 +5469,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5497,40 +5497,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694708</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5597,10 +5597,10 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>454.6048385560546</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>949.9304447718133</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M18" t="n">
         <v>949.9304447718133</v>
@@ -5667,7 +5667,7 @@
         <v>177.7213185270443</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004712</v>
@@ -5740,22 +5740,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5767,10 +5767,10 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5785,19 +5785,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5831,13 +5831,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
         <v>1373.553594266881</v>
@@ -5889,22 +5889,22 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5980,28 +5980,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>653.7474797708871</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6183,16 +6183,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1056.188523744657</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>835.3959446011269</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,31 +6214,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6247,7 +6247,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6411,7 +6411,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
         <v>2035.268256189238</v>
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111704</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S31" t="n">
-        <v>2254.869721166297</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T31" t="n">
-        <v>2035.268256189238</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U31" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1394.184733704552</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551873</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611461</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004711</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111713</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466571</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852886</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591806</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615995</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="33">
@@ -6767,31 +6767,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G33" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273896</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400729</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="E34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578601</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270462</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
         <v>826.1405381797745</v>
@@ -6885,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138426</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551872</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.81350961146</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.54781100471</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168586</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362657</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797182</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K35" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6952,37 +6952,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068007</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852252</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492575</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474781</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.81249946657</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852885</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615994</v>
       </c>
     </row>
     <row r="36">
@@ -7004,31 +7004,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L36" t="n">
         <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400729</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121661</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851781</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L37" t="n">
         <v>826.1405381797745</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138426</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703125</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7238,7 +7238,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F39" t="n">
         <v>314.2396613568978</v>
@@ -7250,7 +7250,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J39" t="n">
         <v>245.2306927803937</v>
@@ -7262,10 +7262,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7335,10 +7335,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
@@ -7356,22 +7356,22 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
         <v>974.1018203925706</v>
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7426,7 +7426,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7627,40 +7627,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7669,28 +7669,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>707.672526468518</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C46" t="n">
-        <v>538.7363435406111</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D46" t="n">
-        <v>388.6197041282753</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E46" t="n">
-        <v>240.7066105458822</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F46" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7833,25 +7833,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258106</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U46" t="n">
-        <v>1882.204779583153</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V46" t="n">
-        <v>1627.520291377266</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W46" t="n">
-        <v>1338.103121340305</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X46" t="n">
-        <v>1110.113570442288</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y46" t="n">
-        <v>889.3209912987577</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
   </sheetData>
@@ -8057,13 +8057,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>14.25823202432855</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8072,13 +8072,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>138.9393975111057</v>
       </c>
       <c r="R3" t="n">
         <v>20.9377812015499</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>54.95314511566511</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>193.327346787835</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,19 +8531,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878349</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>255.5240487471575</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8707,7 +8707,7 @@
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>3.296918293926865e-12</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -10372,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>-1.364242052659392e-12</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -23424,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,16 +23463,16 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>65.08115057384168</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>125.5054897610403</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,7 +23709,7 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>211.9838267404998</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.4949402405078</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24651,10 +24651,10 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>57.229103921942</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>121.5862749664512</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194014</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856543</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>146.815700412494</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465691</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25614,7 +25614,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>57.22910392194225</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25785,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>57.22910392194223</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -26037,7 +26037,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -26073,13 +26073,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>110.0033420516644</v>
       </c>
       <c r="U46" t="n">
-        <v>125.5054897610405</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>651816.7194021282</v>
+        <v>651816.7194021281</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>651816.7194021281</v>
+        <v>651816.7194021282</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710696</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710695</v>
+        <v>779989.6813710697</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710695</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055057</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="G2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.269705506</v>
-      </c>
       <c r="H2" t="n">
+        <v>766789.2697055059</v>
+      </c>
+      <c r="I2" t="n">
         <v>766789.2697055058</v>
       </c>
-      <c r="I2" t="n">
-        <v>766789.2697055059</v>
-      </c>
       <c r="J2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="K2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="M2" t="n">
-        <v>766789.269705506</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="N2" t="n">
         <v>766789.2697055059</v>
       </c>
       <c r="O2" t="n">
-        <v>766789.2697055059</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="P2" t="n">
-        <v>766789.2697055057</v>
+        <v>766789.2697055058</v>
       </c>
     </row>
     <row r="3">
@@ -26392,19 +26392,19 @@
         <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>1.655303094594274e-10</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289269</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.540129233035259e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26420,13 +26420,13 @@
         <v>131909.726831625</v>
       </c>
       <c r="C4" t="n">
+        <v>131909.726831625</v>
+      </c>
+      <c r="D4" t="n">
         <v>131909.7268316249</v>
       </c>
-      <c r="D4" t="n">
-        <v>131909.726831625</v>
-      </c>
       <c r="E4" t="n">
-        <v>6897.424496707315</v>
+        <v>6897.424496707303</v>
       </c>
       <c r="F4" t="n">
         <v>6897.42449670736</v>
@@ -26435,28 +26435,28 @@
         <v>6897.424496707359</v>
       </c>
       <c r="H4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="I4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="J4" t="n">
+        <v>6897.424496707359</v>
+      </c>
+      <c r="K4" t="n">
         <v>6897.42449670736</v>
       </c>
-      <c r="K4" t="n">
-        <v>6897.424496707359</v>
-      </c>
       <c r="L4" t="n">
-        <v>6897.424496707403</v>
+        <v>6897.424496707497</v>
       </c>
       <c r="M4" t="n">
-        <v>6897.424496707359</v>
+        <v>6897.424496707525</v>
       </c>
       <c r="N4" t="n">
         <v>6897.424496707359</v>
       </c>
       <c r="O4" t="n">
-        <v>6897.42449670736</v>
+        <v>6897.424496707359</v>
       </c>
       <c r="P4" t="n">
         <v>6897.424496707359</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-559609.6014763198</v>
+        <v>-559609.6014763197</v>
       </c>
       <c r="C6" t="n">
-        <v>555142.1820995999</v>
+        <v>555142.1820996001</v>
       </c>
       <c r="D6" t="n">
         <v>555142.1820995999</v>
       </c>
       <c r="E6" t="n">
-        <v>150936.4945059882</v>
+        <v>151249.1358349096</v>
       </c>
       <c r="F6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594562</v>
       </c>
       <c r="G6" t="n">
-        <v>658421.9361305346</v>
+        <v>658734.5774594558</v>
       </c>
       <c r="H6" t="n">
-        <v>658421.9361305344</v>
+        <v>658734.5774594558</v>
       </c>
       <c r="I6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594557</v>
       </c>
       <c r="J6" t="n">
-        <v>490816.7583205519</v>
+        <v>491129.399649473</v>
       </c>
       <c r="K6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594556</v>
       </c>
       <c r="L6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.577459456</v>
       </c>
       <c r="M6" t="n">
-        <v>525814.6424016078</v>
+        <v>526127.2837305287</v>
       </c>
       <c r="N6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594559</v>
       </c>
       <c r="O6" t="n">
-        <v>658421.9361305345</v>
+        <v>658734.5774594556</v>
       </c>
       <c r="P6" t="n">
-        <v>658421.9361305343</v>
+        <v>658734.5774594557</v>
       </c>
     </row>
   </sheetData>
@@ -26715,10 +26715,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26740,10 +26740,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="C3" t="n">
+        <v>934.0648921175391</v>
+      </c>
+      <c r="D3" t="n">
         <v>934.0648921175392</v>
-      </c>
-      <c r="D3" t="n">
-        <v>934.0648921175391</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26795,7 +26795,7 @@
         <v>640.5848321000389</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26937,7 +26937,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241346</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26986,7 +26986,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996102</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>136.0343466241497</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27441,7 +27441,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>136.0343466241499</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>120.0619269722706</v>
       </c>
       <c r="H4" t="n">
         <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27599,10 +27599,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>220.1224471232763</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,16 +27618,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>122.2722852802033</v>
       </c>
       <c r="F5" t="n">
-        <v>280.4516089079899</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I7" t="n">
         <v>104.7965952039006</v>
@@ -27836,7 +27836,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>115.3258519193757</v>
+        <v>115.3258519193762</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>95.34150212965568</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,10 +27912,10 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>245.7245006789975</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,16 +28019,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28067,10 +28067,10 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>195.5290386501004</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>201.1568951983995</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28092,7 +28092,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-8.56316825113999e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -29748,7 +29748,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>2.888564659085858e-12</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29760,7 +29760,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>9.496150991986754e-13</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30003,7 +30003,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2.785327524179593e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30042,7 +30042,7 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>1.032371349062654e-13</v>
       </c>
     </row>
     <row r="38">
@@ -31281,43 +31281,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I5" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T5" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U5" t="n">
         <v>0.3004027793744847</v>
@@ -31360,10 +31360,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J6" t="n">
         <v>189.8178475575841</v>
@@ -31372,7 +31372,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040588</v>
@@ -31381,25 +31381,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R6" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
@@ -31457,10 +31457,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O7" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P7" t="n">
         <v>203.7180217169137</v>
@@ -31472,13 +31472,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31518,43 +31518,43 @@
         <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,7 +31609,7 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040588</v>
@@ -31618,25 +31618,25 @@
         <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31709,13 +31709,13 @@
         <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31855,7 +31855,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -32083,7 +32083,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
@@ -32095,10 +32095,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>171.7382405950817</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
@@ -32317,13 +32317,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>349.3304751113902</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32551,16 +32551,16 @@
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>175.6052721551106</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>597.1709559744729</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>400.5469039565762</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,37 +33411,37 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H32" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33450,10 +33450,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33499,22 +33499,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,10 +33526,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T33" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U33" t="n">
         <v>0.1935814387275954</v>
@@ -33575,28 +33575,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J34" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N34" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P34" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q34" t="n">
         <v>206.5643005515927</v>
@@ -33605,7 +33605,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
@@ -33648,37 +33648,37 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H35" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J35" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R35" t="n">
         <v>345.4516222043725</v>
@@ -33687,10 +33687,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33736,22 +33736,22 @@
         <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,10 +33763,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T36" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U36" t="n">
         <v>0.1935814387275954</v>
@@ -33812,28 +33812,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J37" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N37" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P37" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q37" t="n">
         <v>206.5643005515927</v>
@@ -33842,7 +33842,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
@@ -33885,37 +33885,37 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H38" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R38" t="n">
         <v>345.4516222043725</v>
@@ -33924,10 +33924,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U38" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33973,22 +33973,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,10 +34000,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T39" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U39" t="n">
         <v>0.1935814387275954</v>
@@ -34049,28 +34049,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J40" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N40" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P40" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q40" t="n">
         <v>206.5643005515927</v>
@@ -34079,7 +34079,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34777,13 +34777,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L3" t="n">
-        <v>311.9385926621787</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
         <v>366.9313322820405</v>
@@ -34792,13 +34792,13 @@
         <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q3" t="n">
-        <v>326.5580100667037</v>
+        <v>255.4201198419603</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K5" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,16 +35014,16 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>117.9333660065825</v>
+        <v>189.0712562313262</v>
       </c>
       <c r="K6" t="n">
-        <v>451.0527332560634</v>
+        <v>379.9148430313198</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378501</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820404</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
@@ -35032,10 +35032,10 @@
         <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q6" t="n">
-        <v>326.5580100667037</v>
+        <v>326.5580100667036</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K7" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L7" t="n">
         <v>278.0112915831069</v>
@@ -35105,7 +35105,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O7" t="n">
         <v>262.6644876295069</v>
@@ -35114,7 +35114,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
         <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.9148430313197</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>622.455381029198</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
         <v>278.0112915831069</v>
@@ -35342,7 +35342,7 @@
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
         <v>262.6644876295069</v>
@@ -35351,7 +35351,7 @@
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683844</v>
       </c>
       <c r="Q11" t="n">
         <v>371.5675334924728</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35503,7 +35503,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35731,7 +35731,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
@@ -35743,10 +35743,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>37.7638331807514</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35965,13 +35965,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>211.4890361370312</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -36144,7 +36144,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>37.76383318075158</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>455.0369220524547</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
@@ -36600,7 +36600,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
         <v>735.3001107902948</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>257.9506595121318</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N32" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P32" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.866084390239</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
         <v>426.2724270010451</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J35" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P35" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R35" t="n">
         <v>129.8660843902404</v>
@@ -37384,22 +37384,22 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295343</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
         <v>426.2724270010451</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L38" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N38" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P38" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R38" t="n">
         <v>129.8660843902404</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K40" t="n">
         <v>264.3325884096349</v>
@@ -37709,19 +37709,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N40" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P40" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q40" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
